--- a/medicine/Pharmacie/Sirop_d'ipéca/Sirop_d'ipéca.xlsx
+++ b/medicine/Pharmacie/Sirop_d'ipéca/Sirop_d'ipéca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sirop_d%27ip%C3%A9ca</t>
+          <t>Sirop_d'ipéca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sirop d'ipéca, communément appelé « ipéca », est un médicament à base de plantes qui a été autrefois largement utilisé comme expectorant (à faible dose) et comme émétique à action rapide (à dose plus élevée). Il est obtenu à partir des rhizomes et des racines séchés d'une espèce de Rubiaceae, l'ipéca ou ipécacuana (Carapichea ipecacuanha), dont il tire son nom.
-Le sirop d'ipéca peut être considéré comme obsolète en règle générale. Néanmoins, il peut être recommandé de façon exceptionnelle lors de l'ingestion récente d'un toxique lésionnel[1].
+Le sirop d'ipéca peut être considéré comme obsolète en règle générale. Néanmoins, il peut être recommandé de façon exceptionnelle lors de l'ingestion récente d'un toxique lésionnel.
 </t>
         </is>
       </c>
